--- a/raw.xlsx
+++ b/raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pothugunta.Charitha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44DADBE5-C180-490D-996F-764463A0D8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FFDBC6F9-21E0-4D3B-95B5-2C051CDC0032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="1605" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
@@ -34,25 +34,25 @@
     <t>janu</t>
   </si>
   <si>
-    <t>madhu</t>
-  </si>
-  <si>
-    <t>neeraja</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Computers</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>neeru</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>somu</t>
   </si>
 </sst>
 </file>
@@ -893,15 +893,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:XFD1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -911,17 +911,8 @@
       <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -931,17 +922,8 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -949,40 +931,40 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
